--- a/po_analysis_by_asin/B07TJX83W2_po_data.xlsx
+++ b/po_analysis_by_asin/B07TJX83W2_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -581,7 +582,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -647,6 +648,341 @@
       </c>
       <c r="B9" t="n">
         <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44941.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-36.73949017274813</v>
+      </c>
+      <c r="D2" t="n">
+        <v>27.89219140227145</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44955.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-32.12695504560176</v>
+      </c>
+      <c r="D3" t="n">
+        <v>35.46348858967492</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>12</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-22.51081409642472</v>
+      </c>
+      <c r="D4" t="n">
+        <v>43.03504121366336</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>27</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-6.100031583922957</v>
+      </c>
+      <c r="D5" t="n">
+        <v>60.63733130106394</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>43</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11.77572139319088</v>
+      </c>
+      <c r="D6" t="n">
+        <v>76.42377997250794</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>49</v>
+      </c>
+      <c r="C7" t="n">
+        <v>14.85372592143417</v>
+      </c>
+      <c r="D7" t="n">
+        <v>84.19209019047004</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>52</v>
+      </c>
+      <c r="C8" t="n">
+        <v>20.29403788927094</v>
+      </c>
+      <c r="D8" t="n">
+        <v>87.088723453797</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>65</v>
+      </c>
+      <c r="C9" t="n">
+        <v>32.99561400192061</v>
+      </c>
+      <c r="D9" t="n">
+        <v>95.94285948229093</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>77</v>
+      </c>
+      <c r="C10" t="n">
+        <v>47.09623475683514</v>
+      </c>
+      <c r="D10" t="n">
+        <v>112.7953656202602</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>80</v>
+      </c>
+      <c r="C11" t="n">
+        <v>48.08562691282658</v>
+      </c>
+      <c r="D11" t="n">
+        <v>111.5928192564785</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>83</v>
+      </c>
+      <c r="C12" t="n">
+        <v>47.61101258775901</v>
+      </c>
+      <c r="D12" t="n">
+        <v>112.5923597389446</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>86</v>
+      </c>
+      <c r="C13" t="n">
+        <v>53.63040718301654</v>
+      </c>
+      <c r="D13" t="n">
+        <v>118.5785043723998</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>93</v>
+      </c>
+      <c r="C14" t="n">
+        <v>60.30281764216173</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125.729399540547</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>96</v>
+      </c>
+      <c r="C15" t="n">
+        <v>60.50447831244848</v>
+      </c>
+      <c r="D15" t="n">
+        <v>131.1563366786123</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>99</v>
+      </c>
+      <c r="C16" t="n">
+        <v>66.99829969094907</v>
+      </c>
+      <c r="D16" t="n">
+        <v>131.6828018117286</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>102</v>
+      </c>
+      <c r="C17" t="n">
+        <v>68.92935954540265</v>
+      </c>
+      <c r="D17" t="n">
+        <v>134.3902131868925</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>105</v>
+      </c>
+      <c r="C18" t="n">
+        <v>70.17265475611909</v>
+      </c>
+      <c r="D18" t="n">
+        <v>138.9423790203081</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>108</v>
+      </c>
+      <c r="C19" t="n">
+        <v>75.83904762228896</v>
+      </c>
+      <c r="D19" t="n">
+        <v>142.6470496607432</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>111</v>
+      </c>
+      <c r="C20" t="n">
+        <v>78.86513188231451</v>
+      </c>
+      <c r="D20" t="n">
+        <v>143.0591932332247</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>114</v>
+      </c>
+      <c r="C21" t="n">
+        <v>83.14554024522529</v>
+      </c>
+      <c r="D21" t="n">
+        <v>146.8211118399818</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>118</v>
+      </c>
+      <c r="C22" t="n">
+        <v>82.99601390105904</v>
+      </c>
+      <c r="D22" t="n">
+        <v>149.5540014434308</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B07TJX83W2_po_data.xlsx
+++ b/po_analysis_by_asin/B07TJX83W2_po_data.xlsx
@@ -661,7 +661,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,16 +680,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -698,12 +688,6 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
-        <v>-36.73949017274813</v>
-      </c>
-      <c r="D2" t="n">
-        <v>27.89219140227145</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -712,12 +696,6 @@
       <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" t="n">
-        <v>-32.12695504560176</v>
-      </c>
-      <c r="D3" t="n">
-        <v>35.46348858967492</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -726,12 +704,6 @@
       <c r="B4" t="n">
         <v>12</v>
       </c>
-      <c r="C4" t="n">
-        <v>-22.51081409642472</v>
-      </c>
-      <c r="D4" t="n">
-        <v>43.03504121366336</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -740,12 +712,6 @@
       <c r="B5" t="n">
         <v>27</v>
       </c>
-      <c r="C5" t="n">
-        <v>-6.100031583922957</v>
-      </c>
-      <c r="D5" t="n">
-        <v>60.63733130106394</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -754,12 +720,6 @@
       <c r="B6" t="n">
         <v>43</v>
       </c>
-      <c r="C6" t="n">
-        <v>11.77572139319088</v>
-      </c>
-      <c r="D6" t="n">
-        <v>76.42377997250794</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -768,12 +728,6 @@
       <c r="B7" t="n">
         <v>49</v>
       </c>
-      <c r="C7" t="n">
-        <v>14.85372592143417</v>
-      </c>
-      <c r="D7" t="n">
-        <v>84.19209019047004</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -782,12 +736,6 @@
       <c r="B8" t="n">
         <v>52</v>
       </c>
-      <c r="C8" t="n">
-        <v>20.29403788927094</v>
-      </c>
-      <c r="D8" t="n">
-        <v>87.088723453797</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -796,12 +744,6 @@
       <c r="B9" t="n">
         <v>65</v>
       </c>
-      <c r="C9" t="n">
-        <v>32.99561400192061</v>
-      </c>
-      <c r="D9" t="n">
-        <v>95.94285948229093</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -810,12 +752,6 @@
       <c r="B10" t="n">
         <v>77</v>
       </c>
-      <c r="C10" t="n">
-        <v>47.09623475683514</v>
-      </c>
-      <c r="D10" t="n">
-        <v>112.7953656202602</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -824,12 +760,6 @@
       <c r="B11" t="n">
         <v>80</v>
       </c>
-      <c r="C11" t="n">
-        <v>48.08562691282658</v>
-      </c>
-      <c r="D11" t="n">
-        <v>111.5928192564785</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -838,12 +768,6 @@
       <c r="B12" t="n">
         <v>83</v>
       </c>
-      <c r="C12" t="n">
-        <v>47.61101258775901</v>
-      </c>
-      <c r="D12" t="n">
-        <v>112.5923597389446</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -852,12 +776,6 @@
       <c r="B13" t="n">
         <v>86</v>
       </c>
-      <c r="C13" t="n">
-        <v>53.63040718301654</v>
-      </c>
-      <c r="D13" t="n">
-        <v>118.5785043723998</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -866,12 +784,6 @@
       <c r="B14" t="n">
         <v>93</v>
       </c>
-      <c r="C14" t="n">
-        <v>60.30281764216173</v>
-      </c>
-      <c r="D14" t="n">
-        <v>125.729399540547</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -880,12 +792,6 @@
       <c r="B15" t="n">
         <v>96</v>
       </c>
-      <c r="C15" t="n">
-        <v>60.50447831244848</v>
-      </c>
-      <c r="D15" t="n">
-        <v>131.1563366786123</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -894,12 +800,6 @@
       <c r="B16" t="n">
         <v>99</v>
       </c>
-      <c r="C16" t="n">
-        <v>66.99829969094907</v>
-      </c>
-      <c r="D16" t="n">
-        <v>131.6828018117286</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -908,12 +808,6 @@
       <c r="B17" t="n">
         <v>102</v>
       </c>
-      <c r="C17" t="n">
-        <v>68.92935954540265</v>
-      </c>
-      <c r="D17" t="n">
-        <v>134.3902131868925</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -922,12 +816,6 @@
       <c r="B18" t="n">
         <v>105</v>
       </c>
-      <c r="C18" t="n">
-        <v>70.17265475611909</v>
-      </c>
-      <c r="D18" t="n">
-        <v>138.9423790203081</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -936,12 +824,6 @@
       <c r="B19" t="n">
         <v>108</v>
       </c>
-      <c r="C19" t="n">
-        <v>75.83904762228896</v>
-      </c>
-      <c r="D19" t="n">
-        <v>142.6470496607432</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -950,12 +832,6 @@
       <c r="B20" t="n">
         <v>111</v>
       </c>
-      <c r="C20" t="n">
-        <v>78.86513188231451</v>
-      </c>
-      <c r="D20" t="n">
-        <v>143.0591932332247</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -964,12 +840,6 @@
       <c r="B21" t="n">
         <v>114</v>
       </c>
-      <c r="C21" t="n">
-        <v>83.14554024522529</v>
-      </c>
-      <c r="D21" t="n">
-        <v>146.8211118399818</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -977,12 +847,6 @@
       </c>
       <c r="B22" t="n">
         <v>118</v>
-      </c>
-      <c r="C22" t="n">
-        <v>82.99601390105904</v>
-      </c>
-      <c r="D22" t="n">
-        <v>149.5540014434308</v>
       </c>
     </row>
   </sheetData>
